--- a/PivotTable/sales-funnel.xlsx
+++ b/PivotTable/sales-funnel.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Pandas\PivotTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="167" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Stat1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
   <si>
     <t>Account</t>
   </si>
@@ -120,16 +126,31 @@
   </si>
   <si>
     <t>Monitor</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,19 +158,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="7.5"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="7.5"/>
+      <name val="Arial CYR"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,552 +183,1983 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="8.28515625"/>
+    <col min="2" max="2" width="25.42578125"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="13.28515625"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>714466</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>30000</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>714466</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>10000</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>714466</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>5000</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>737550</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>35000</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>146832</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>65000</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>218895</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>40000</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>218895</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>10000</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>412290</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>5000</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>740150</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>35000</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>141962</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>65000</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>163416</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>30000</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>239344</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>5000</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>239344</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>10000</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>307599</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>7000</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>688981</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>100000</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>729833</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>65000</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>729833</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>5000</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>714466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>30000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>714466</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>714466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>737550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>35000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>146832</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>65000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>218895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>40000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>218895</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>412290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>740150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>35000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>141962</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>65000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>163416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>239344</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>239344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>307599</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>7000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>688981</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>100000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>729833</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>65000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>729833</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1917</v>
+      </c>
+      <c r="B2" s="2">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B3" s="2">
+        <v>92.7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B4" s="2">
+        <v>108.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B5" s="2">
+        <v>117.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>61.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B6" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D6" s="3">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B7" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>82</v>
+      </c>
+      <c r="D7" s="3">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B8" s="2">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B9" s="2">
+        <v>132.1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>85.4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B10" s="2">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>87.1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B11" s="2">
+        <v>133.6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>88.9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B12" s="2">
+        <v>134.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B13" s="2">
+        <v>135.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B14" s="2">
+        <v>136.5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B15" s="2">
+        <v>137.4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>94.9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B16" s="2">
+        <v>138.1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B17" s="2">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>97.3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B18" s="2">
+        <v>139.6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B19" s="2">
+        <v>140.5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B20" s="2">
+        <v>141.6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>101.2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B21" s="2">
+        <v>142.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>102.4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B22" s="2">
+        <v>143.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>103.7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B23" s="2">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>105.2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1988</v>
+      </c>
+      <c r="B24" s="2">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3">
+        <v>106.7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B25" s="2">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3">
+        <v>108</v>
+      </c>
+      <c r="D25" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1990</v>
+      </c>
+      <c r="B26" s="2">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>108.8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B27" s="2">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="C27" s="3">
+        <v>109.4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B28" s="2">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B29" s="2">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>107.1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B30" s="2">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>106.4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B31" s="2">
+        <v>145</v>
+      </c>
+      <c r="C31" s="3">
+        <v>106.3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B32" s="2">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>106</v>
+      </c>
+      <c r="D32" s="3">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B33" s="2">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>105.2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B34" s="2">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>104.8</v>
+      </c>
+      <c r="D34" s="3">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B35" s="2">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>104.7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B36" s="2">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B37" s="2">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>104.9</v>
+      </c>
+      <c r="D37" s="3">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B38" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="C38" s="3">
+        <v>105.3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B39" s="2">
+        <v>142.9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>105.4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B40" s="2">
+        <v>143</v>
+      </c>
+      <c r="C40" s="3">
+        <v>105.7</v>
+      </c>
+      <c r="D40" s="3">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B41" s="2">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>106.1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B42" s="2">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <v>106.6</v>
+      </c>
+      <c r="D42" s="3">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B43" s="2">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>108.3</v>
+      </c>
+      <c r="D43" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B44" s="2">
+        <v>146.5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>108.6</v>
+      </c>
+      <c r="D44" s="3">
+        <v>37.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PivotTable/sales-funnel.xlsx
+++ b/PivotTable/sales-funnel.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Pandas\PivotTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="167" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="167" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Stat1" sheetId="3" r:id="rId3"/>
+    <sheet name="Brak" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="42">
   <si>
     <t>Account</t>
   </si>
@@ -141,6 +137,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Brak</t>
+  </si>
+  <si>
+    <t>Razvod</t>
   </si>
 </sst>
 </file>
@@ -148,14 +150,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -174,6 +184,22 @@
       <sz val="7.5"/>
       <name val="Arial CYR"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,35 +232,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1537,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D44"/>
     </sheetView>
   </sheetViews>
@@ -2162,4 +2214,272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1950</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1222971</v>
+      </c>
+      <c r="C2" s="6">
+        <v>49378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1960</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1499581</v>
+      </c>
+      <c r="C3" s="6">
+        <v>184398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1970</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1319227</v>
+      </c>
+      <c r="C4" s="6">
+        <v>396589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1464579</v>
+      </c>
+      <c r="C5" s="6">
+        <v>580720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1319928</v>
+      </c>
+      <c r="C6" s="6">
+        <v>559918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1075219</v>
+      </c>
+      <c r="C7" s="6">
+        <v>665904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>897327</v>
+      </c>
+      <c r="C8" s="6">
+        <v>627703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1001589</v>
+      </c>
+      <c r="C9" s="6">
+        <v>763493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1019762</v>
+      </c>
+      <c r="C10" s="6">
+        <v>853647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1091778</v>
+      </c>
+      <c r="C11" s="6">
+        <v>798824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B12" s="5">
+        <v>979667</v>
+      </c>
+      <c r="C12" s="6">
+        <v>635835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1066366</v>
+      </c>
+      <c r="C13" s="6">
+        <v>604942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1113562</v>
+      </c>
+      <c r="C14" s="6">
+        <v>640837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1262500</v>
+      </c>
+      <c r="C15" s="6">
+        <v>685910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1179007</v>
+      </c>
+      <c r="C16" s="6">
+        <v>703412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1199446</v>
+      </c>
+      <c r="C17" s="6">
+        <v>699430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1215066</v>
+      </c>
+      <c r="C18" s="7">
+        <v>639321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1316011</v>
+      </c>
+      <c r="C19" s="6">
+        <v>669376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1213598</v>
+      </c>
+      <c r="C20" s="6">
+        <v>644101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1225501</v>
+      </c>
+      <c r="C21" s="6">
+        <v>667971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1225985</v>
+      </c>
+      <c r="C22" s="6">
+        <v>693730</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1161068</v>
+      </c>
+      <c r="C23" s="6">
+        <v>611646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>